--- a/studio2/data/infected_24march2016.xlsx
+++ b/studio2/data/infected_24march2016.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tangdru/Dropbox/IDV/2016_Spring/03_IDV2_Dynamic Mapping and Models/IDV2/tangdru/final/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tangdru/Dropbox/IDV/tangdru.github.io/studio2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11420" yWindow="780" windowWidth="13240" windowHeight="14860" tabRatio="500"/>
+    <workbookView xWindow="3560" yWindow="460" windowWidth="20240" windowHeight="15220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="87">
   <si>
     <t>Central America</t>
   </si>
@@ -146,9 +146,6 @@
     <t>confirmed</t>
   </si>
   <si>
-    <t>deaths</t>
-  </si>
-  <si>
     <t>North America</t>
   </si>
   <si>
@@ -164,12 +161,6 @@
     <t>United States</t>
   </si>
   <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
     <t>Alabama</t>
   </si>
   <si>
@@ -291,6 +282,9 @@
   </si>
   <si>
     <t>Curaçao</t>
+  </si>
+  <si>
+    <t>suspected</t>
   </si>
 </sst>
 </file>
@@ -339,11 +333,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -621,22 +616,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" zoomScalePageLayoutView="72" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="111" zoomScaleNormal="72" zoomScalePageLayoutView="72" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="14.33203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="10.33203125" style="1" customWidth="1"/>
+    <col min="4" max="6" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="10.83203125" style="4"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -653,27 +649,21 @@
         <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G1" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D2" s="1">
         <v>51.410913999999998</v>
@@ -681,19 +671,19 @@
       <c r="E2" s="1">
         <v>-120.984426</v>
       </c>
-      <c r="H2" s="1">
+      <c r="F2" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D3" s="1">
         <v>46.24928164</v>
@@ -701,19 +691,19 @@
       <c r="E3" s="1">
         <v>-63.13132512</v>
       </c>
-      <c r="H3" s="1">
+      <c r="F3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="D4" s="1">
         <v>46.839969089999997</v>
@@ -721,19 +711,19 @@
       <c r="E4" s="1">
         <v>-71.245610189999994</v>
       </c>
-      <c r="H4" s="1">
+      <c r="F4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="D5" s="1">
         <v>33.263503999999998</v>
@@ -741,19 +731,19 @@
       <c r="E5" s="1">
         <v>-86.772734</v>
       </c>
-      <c r="H5" s="1">
+      <c r="F5" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D6" s="1">
         <v>34.993918000000001</v>
@@ -761,19 +751,19 @@
       <c r="E6" s="1">
         <v>-92.453286000000006</v>
       </c>
-      <c r="H6" s="1">
+      <c r="F6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D7" s="1">
         <v>37.489216999999996</v>
@@ -781,19 +771,19 @@
       <c r="E7" s="1">
         <v>-121.25886300000001</v>
       </c>
-      <c r="H7" s="1">
+      <c r="F7" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D8" s="1">
         <v>39.065372000000004</v>
@@ -801,19 +791,19 @@
       <c r="E8" s="1">
         <v>-105.738961</v>
       </c>
-      <c r="H8" s="1">
+      <c r="F8" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D9" s="1">
         <v>41.718761999999998</v>
@@ -821,19 +811,19 @@
       <c r="E9" s="1">
         <v>-72.639720999999994</v>
       </c>
-      <c r="H9" s="1">
+      <c r="F9" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D10" s="1">
         <v>39.020482999999999</v>
@@ -841,19 +831,19 @@
       <c r="E10" s="1">
         <v>-75.513126999999997</v>
       </c>
-      <c r="H10" s="1">
+      <c r="F10" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D11" s="1">
         <v>38.916898000000003</v>
@@ -861,19 +851,19 @@
       <c r="E11" s="1">
         <v>-77.015952999999996</v>
       </c>
-      <c r="H11" s="1">
+      <c r="F11" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D12" s="1">
         <v>28.206672000000001</v>
@@ -881,19 +871,19 @@
       <c r="E12" s="1">
         <v>-81.402662000000007</v>
       </c>
-      <c r="H12" s="1">
+      <c r="F12" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D13" s="2">
         <v>32.819763999999999</v>
@@ -901,19 +891,19 @@
       <c r="E13" s="1">
         <v>-83.238230999999999</v>
       </c>
-      <c r="H13" s="2">
+      <c r="F13" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D14" s="2">
         <v>21.106411000000001</v>
@@ -921,19 +911,19 @@
       <c r="E14" s="1">
         <v>-156.849502</v>
       </c>
-      <c r="H14" s="2">
+      <c r="F14" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D15" s="2">
         <v>40.392958999999998</v>
@@ -941,19 +931,19 @@
       <c r="E15" s="1">
         <v>-88.989103</v>
       </c>
-      <c r="H15" s="2">
+      <c r="F15" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D16" s="1">
         <v>39.816375999999998</v>
@@ -961,19 +951,19 @@
       <c r="E16" s="1">
         <v>-86.147908000000001</v>
       </c>
-      <c r="H16" s="2">
+      <c r="F16" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D17" s="2">
         <v>42.209716</v>
@@ -981,19 +971,19 @@
       <c r="E17" s="1">
         <v>-93.576966999999996</v>
       </c>
-      <c r="H17" s="2">
+      <c r="F17" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D18" s="2">
         <v>38.790610999999998</v>
@@ -1001,19 +991,19 @@
       <c r="E18" s="1">
         <v>-98.398810999999995</v>
       </c>
-      <c r="H18" s="2">
+      <c r="F18" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D19" s="2">
         <v>37.626012000000003</v>
@@ -1021,19 +1011,19 @@
       <c r="E19" s="1">
         <v>-85.115695000000002</v>
       </c>
-      <c r="H19" s="2">
+      <c r="F19" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D20" s="2">
         <v>31.273596000000001</v>
@@ -1041,19 +1031,19 @@
       <c r="E20" s="1">
         <v>-92.215417000000002</v>
       </c>
-      <c r="H20" s="2">
+      <c r="F20" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D21" s="2">
         <v>39.298724999999997</v>
@@ -1061,19 +1051,19 @@
       <c r="E21" s="1">
         <v>-76.588967999999994</v>
       </c>
-      <c r="H21" s="2">
+      <c r="F21" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D22" s="2">
         <v>42.326000999999998</v>
@@ -1081,19 +1071,19 @@
       <c r="E22" s="1">
         <v>-71.391779</v>
       </c>
-      <c r="H22" s="2">
+      <c r="F22" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D23" s="2">
         <v>44.329797999999997</v>
@@ -1101,19 +1091,19 @@
       <c r="E23" s="1">
         <v>-84.701937999999998</v>
       </c>
-      <c r="H23" s="2">
+      <c r="F23" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D24" s="2">
         <v>45.935465000000001</v>
@@ -1121,19 +1111,19 @@
       <c r="E24" s="1">
         <v>-94.523945999999995</v>
       </c>
-      <c r="H24" s="2">
+      <c r="F24" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D25" s="2">
         <v>38.709665000000001</v>
@@ -1141,19 +1131,19 @@
       <c r="E25" s="1">
         <v>-92.429078000000004</v>
       </c>
-      <c r="H25" s="2">
+      <c r="F25" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D26" s="2">
         <v>47.210577999999998</v>
@@ -1161,19 +1151,19 @@
       <c r="E26" s="1">
         <v>-109.674458</v>
       </c>
-      <c r="H26" s="2">
+      <c r="F26" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D27" s="1">
         <v>41.766976</v>
@@ -1181,19 +1171,19 @@
       <c r="E27" s="1">
         <v>-100.08260900000001</v>
       </c>
-      <c r="H27" s="2">
+      <c r="F27" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D28" s="2">
         <v>43.814486000000002</v>
@@ -1201,19 +1191,19 @@
       <c r="E28" s="1">
         <v>-71.599665999999999</v>
       </c>
-      <c r="H28" s="2">
+      <c r="F28" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D29" s="1">
         <v>40.349907999999999</v>
@@ -1221,19 +1211,19 @@
       <c r="E29" s="1">
         <v>-74.409381999999994</v>
       </c>
-      <c r="H29" s="2">
+      <c r="F29" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D30" s="2">
         <v>42.649838000000003</v>
@@ -1241,19 +1231,19 @@
       <c r="E30" s="1">
         <v>-75.164680000000004</v>
       </c>
-      <c r="H30" s="2">
+      <c r="F30" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D31" s="2">
         <v>35.714247</v>
@@ -1261,19 +1251,19 @@
       <c r="E31" s="1">
         <v>-79.692733000000004</v>
       </c>
-      <c r="H31" s="2">
+      <c r="F31" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D32" s="2">
         <v>40.086725999999999</v>
@@ -1281,19 +1271,19 @@
       <c r="E32" s="1">
         <v>-82.809987000000007</v>
       </c>
-      <c r="H32" s="2">
+      <c r="F32" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D33" s="2">
         <v>35.369632000000003</v>
@@ -1301,19 +1291,19 @@
       <c r="E33" s="1">
         <v>-97.309310999999994</v>
       </c>
-      <c r="H33" s="2">
+      <c r="F33" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D34" s="2">
         <v>44.199373000000001</v>
@@ -1321,19 +1311,19 @@
       <c r="E34" s="1">
         <v>-120.867338</v>
       </c>
-      <c r="H34" s="2">
+      <c r="F34" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D35" s="2">
         <v>41.073248</v>
@@ -1341,19 +1331,19 @@
       <c r="E35" s="1">
         <v>-77.613301000000007</v>
       </c>
-      <c r="H35" s="2">
+      <c r="F35" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D36" s="2">
         <v>35.96658</v>
@@ -1361,19 +1351,19 @@
       <c r="E36" s="1">
         <v>-86.305987999999999</v>
       </c>
-      <c r="H36" s="2">
+      <c r="F36" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D37" s="2">
         <v>32.015552999999997</v>
@@ -1381,19 +1371,19 @@
       <c r="E37" s="1">
         <v>-99.446398000000002</v>
       </c>
-      <c r="H37" s="2">
+      <c r="F37" s="2">
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D38" s="2">
         <v>37.729059999999997</v>
@@ -1401,19 +1391,19 @@
       <c r="E38" s="1">
         <v>-78.308904999999996</v>
       </c>
-      <c r="H38" s="2">
+      <c r="F38" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D39" s="2">
         <v>47.549917000000001</v>
@@ -1421,19 +1411,19 @@
       <c r="E39" s="1">
         <v>-120.732564</v>
       </c>
-      <c r="H39" s="2">
+      <c r="F39" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D40" s="2">
         <v>38.816951000000003</v>
@@ -1441,16 +1431,16 @@
       <c r="E40" s="1">
         <v>-80.476695000000007</v>
       </c>
-      <c r="H40" s="2">
+      <c r="F40" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="D41" s="1">
         <v>21.571238999999998</v>
@@ -1458,11 +1448,14 @@
       <c r="E41" s="1">
         <v>-101.52849000000001</v>
       </c>
-      <c r="H41" s="1">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F41" s="1">
+        <v>239</v>
+      </c>
+      <c r="G41" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
@@ -1475,11 +1468,14 @@
       <c r="E42" s="1">
         <v>-83.809400999999994</v>
       </c>
-      <c r="H42" s="3">
+      <c r="F42" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G42" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -1492,11 +1488,14 @@
       <c r="E43" s="1">
         <v>-88.805081000000001</v>
       </c>
-      <c r="H43" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F43" s="3">
+        <v>43</v>
+      </c>
+      <c r="G43" s="4">
+        <v>11078</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
@@ -1509,11 +1508,14 @@
       <c r="E44" s="1">
         <v>-90.138400000000004</v>
       </c>
-      <c r="H44" s="3">
+      <c r="F44" s="3">
         <v>261</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G44" s="4">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -1526,11 +1528,14 @@
       <c r="E45" s="1">
         <v>-86.816142999999997</v>
       </c>
-      <c r="H45" s="3">
+      <c r="F45" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G45" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
@@ -1543,11 +1548,14 @@
       <c r="E46" s="1">
         <v>-85.025604999999999</v>
       </c>
-      <c r="H46" s="3">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F46" s="3">
+        <v>139</v>
+      </c>
+      <c r="G46" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
@@ -1560,11 +1568,14 @@
       <c r="E47" s="1">
         <v>-80.036973000000003</v>
       </c>
-      <c r="H47" s="3">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F47" s="3">
+        <v>220</v>
+      </c>
+      <c r="G47" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>7</v>
       </c>
@@ -1577,11 +1588,14 @@
       <c r="E48" s="1">
         <v>-78.865324000000001</v>
       </c>
-      <c r="H48" s="3">
+      <c r="F48" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G48" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>7</v>
       </c>
@@ -1594,11 +1608,14 @@
       <c r="E49" s="1">
         <v>-70.289877000000004</v>
       </c>
-      <c r="H49" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F49" s="3">
+        <v>56</v>
+      </c>
+      <c r="G49" s="4">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>7</v>
       </c>
@@ -1611,11 +1628,14 @@
       <c r="E50" s="1">
         <v>-53.109442000000001</v>
       </c>
-      <c r="H50" s="3">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F50" s="3">
+        <v>411</v>
+      </c>
+      <c r="G50" s="4">
+        <v>4090</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>7</v>
       </c>
@@ -1628,11 +1648,14 @@
       <c r="E51" s="1">
         <v>-61.527425000000001</v>
       </c>
-      <c r="H51" s="3">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F51" s="3">
+        <v>239</v>
+      </c>
+      <c r="G51" s="4">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>7</v>
       </c>
@@ -1645,11 +1668,14 @@
       <c r="E52" s="1">
         <v>-72.274600000000007</v>
       </c>
-      <c r="H52" s="3">
+      <c r="F52" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G52" s="4">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>7</v>
       </c>
@@ -1662,11 +1688,14 @@
       <c r="E53" s="1">
         <v>-60.976075000000002</v>
       </c>
-      <c r="H53" s="3">
+      <c r="F53" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G53" s="4">
+        <v>17990</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>7</v>
       </c>
@@ -1679,11 +1708,14 @@
       <c r="E54" s="1">
         <v>-66.460460999999995</v>
       </c>
-      <c r="H54" s="3">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F54" s="3">
+        <v>550</v>
+      </c>
+      <c r="G54" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>7</v>
       </c>
@@ -1696,11 +1728,14 @@
       <c r="E55" s="1">
         <v>-63.052460000000004</v>
       </c>
-      <c r="H55" s="3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F55" s="3">
+        <v>43</v>
+      </c>
+      <c r="G55" s="4">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>16</v>
       </c>
@@ -1713,11 +1748,14 @@
       <c r="E56" s="1">
         <v>-64.425777999999994</v>
       </c>
-      <c r="H56" s="3">
+      <c r="F56" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G56" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>16</v>
       </c>
@@ -1730,11 +1768,14 @@
       <c r="E57" s="1">
         <v>-73.275071999999994</v>
       </c>
-      <c r="H57" s="3">
-        <v>2355</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F57" s="3">
+        <v>3292</v>
+      </c>
+      <c r="G57" s="4">
+        <v>65338</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>16</v>
       </c>
@@ -1747,11 +1788,14 @@
       <c r="E58" s="1">
         <v>-78.433278000000001</v>
       </c>
-      <c r="H58" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F58" s="3">
+        <v>92</v>
+      </c>
+      <c r="G58" s="4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>16</v>
       </c>
@@ -1764,11 +1808,14 @@
       <c r="E59" s="1">
         <v>-65.544839999999994</v>
       </c>
-      <c r="H59" s="3">
+      <c r="F59" s="3">
         <v>352</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G59" s="4">
+        <v>31224</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>21</v>
       </c>
@@ -1781,11 +1828,14 @@
       <c r="E60" s="1">
         <v>-52.066885999999997</v>
       </c>
-      <c r="H60" s="3">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F60" s="3">
+        <v>1034</v>
+      </c>
+      <c r="G60" s="4">
+        <v>70611</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>21</v>
       </c>
@@ -1798,13 +1848,16 @@
       <c r="E61" s="1">
         <v>-57.853605000000002</v>
       </c>
-      <c r="H61" s="3">
+      <c r="F61" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G61" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>24</v>
@@ -1815,13 +1868,16 @@
       <c r="E62" s="1">
         <v>-69.965889000000004</v>
       </c>
-      <c r="H62" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F62" s="3">
+        <v>17</v>
+      </c>
+      <c r="G62" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>25</v>
@@ -1832,13 +1888,16 @@
       <c r="E63" s="1">
         <v>-59.560332000000002</v>
       </c>
-      <c r="H63" s="3">
+      <c r="F63" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G63" s="4">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>26</v>
@@ -1849,16 +1908,19 @@
       <c r="E64" s="1">
         <v>-68.269861000000006</v>
       </c>
-      <c r="H64" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F64" s="3">
+        <v>3</v>
+      </c>
+      <c r="G64" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D65" s="1">
         <v>12.179887000000001</v>
@@ -1866,13 +1928,16 @@
       <c r="E65" s="1">
         <v>-68.989099999999993</v>
       </c>
-      <c r="H65" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F65" s="3">
+        <v>73</v>
+      </c>
+      <c r="G65" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>27</v>
@@ -1883,13 +1948,16 @@
       <c r="E66" s="1">
         <v>-61.343680999999997</v>
       </c>
-      <c r="H66" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F66" s="3">
+        <v>5</v>
+      </c>
+      <c r="G66" s="4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>28</v>
@@ -1900,13 +1968,16 @@
       <c r="E67" s="1">
         <v>-58.848202999999998</v>
       </c>
-      <c r="H67" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F67" s="3">
+        <v>6</v>
+      </c>
+      <c r="G67" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>29</v>
@@ -1917,13 +1988,16 @@
       <c r="E68" s="1">
         <v>-77.312380000000005</v>
       </c>
-      <c r="H68" s="3">
+      <c r="F68" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G68" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>30</v>
@@ -1934,13 +2008,16 @@
       <c r="E69" s="1">
         <v>-61.191682</v>
       </c>
-      <c r="H69" s="3">
+      <c r="F69" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G69" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>31</v>
@@ -1951,13 +2028,16 @@
       <c r="E70" s="1">
         <v>-63.057136999999997</v>
       </c>
-      <c r="H70" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F70" s="3">
+        <v>7</v>
+      </c>
+      <c r="G70" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>32</v>
@@ -1968,13 +2048,16 @@
       <c r="E71" s="1">
         <v>-55.808065999999997</v>
       </c>
-      <c r="H71" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F71" s="3">
+        <v>527</v>
+      </c>
+      <c r="G71" s="4">
+        <v>3490</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>33</v>
@@ -1985,16 +2068,19 @@
       <c r="E72" s="1">
         <v>-61.236649</v>
       </c>
-      <c r="H72" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F72" s="3">
+        <v>16</v>
+      </c>
+      <c r="G72" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D73" s="1">
         <v>17.732642999999999</v>
@@ -2002,8 +2088,11 @@
       <c r="E73" s="1">
         <v>-64.759461999999999</v>
       </c>
-      <c r="H73" s="3">
-        <v>13</v>
+      <c r="F73" s="3">
+        <v>14</v>
+      </c>
+      <c r="G73" s="4">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
